--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl2-Ccr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>56.47185866666666</v>
+        <v>0.1510096666666667</v>
       </c>
       <c r="H2">
-        <v>169.415576</v>
+        <v>0.453029</v>
       </c>
       <c r="I2">
-        <v>0.8070274173741353</v>
+        <v>0.01105950042918124</v>
       </c>
       <c r="J2">
-        <v>0.8070274173741354</v>
+        <v>0.01105950042918124</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>9.235433666666667</v>
+        <v>0.02154</v>
       </c>
       <c r="N2">
-        <v>27.706301</v>
+        <v>0.06462</v>
       </c>
       <c r="O2">
-        <v>0.9849159412561933</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="P2">
-        <v>0.9849159412561931</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="Q2">
-        <v>521.5421047493751</v>
+        <v>0.00325274822</v>
       </c>
       <c r="R2">
-        <v>4693.878942744376</v>
+        <v>0.02927473398</v>
       </c>
       <c r="S2">
-        <v>0.7948541684026013</v>
+        <v>0.00146164983665551</v>
       </c>
       <c r="T2">
-        <v>0.7948541684026011</v>
+        <v>0.00146164983665551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>56.47185866666666</v>
+        <v>0.1510096666666667</v>
       </c>
       <c r="H3">
-        <v>169.415576</v>
+        <v>0.453029</v>
       </c>
       <c r="I3">
-        <v>0.8070274173741353</v>
+        <v>0.01105950042918124</v>
       </c>
       <c r="J3">
-        <v>0.8070274173741354</v>
+        <v>0.01105950042918124</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.08345333333333334</v>
+        <v>0.08345333333333332</v>
       </c>
       <c r="N3">
         <v>0.25036</v>
       </c>
       <c r="O3">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="P3">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="Q3">
-        <v>4.712764845262222</v>
+        <v>0.01260226004888889</v>
       </c>
       <c r="R3">
-        <v>42.41488360736</v>
+        <v>0.11342034044</v>
       </c>
       <c r="S3">
-        <v>0.007182470500168002</v>
+        <v>0.005662931802925928</v>
       </c>
       <c r="T3">
-        <v>0.007182470500168003</v>
+        <v>0.005662931802925928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>56.47185866666666</v>
+        <v>0.1510096666666667</v>
       </c>
       <c r="H4">
-        <v>169.415576</v>
+        <v>0.453029</v>
       </c>
       <c r="I4">
-        <v>0.8070274173741353</v>
+        <v>0.01105950042918124</v>
       </c>
       <c r="J4">
-        <v>0.8070274173741354</v>
+        <v>0.01105950042918124</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>0.173964</v>
       </c>
       <c r="O4">
-        <v>0.006184149836699327</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="P4">
-        <v>0.006184149836699326</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="Q4">
-        <v>3.274690140362666</v>
+        <v>0.008756748550666668</v>
       </c>
       <c r="R4">
-        <v>29.472211263264</v>
+        <v>0.07881073695600001</v>
       </c>
       <c r="S4">
-        <v>0.004990778471366138</v>
+        <v>0.003934918789599802</v>
       </c>
       <c r="T4">
-        <v>0.004990778471366138</v>
+        <v>0.003934918789599802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>30.70486</v>
       </c>
       <c r="I5">
-        <v>0.1462655586439962</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="J5">
-        <v>0.1462655586439962</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>9.235433666666667</v>
+        <v>0.02154</v>
       </c>
       <c r="N5">
-        <v>27.706301</v>
+        <v>0.06462</v>
       </c>
       <c r="O5">
-        <v>0.9849159412561933</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="P5">
-        <v>0.9849159412561931</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="Q5">
-        <v>94.5242325914289</v>
+        <v>0.2204608948</v>
       </c>
       <c r="R5">
-        <v>850.7180933228601</v>
+        <v>1.9841480532</v>
       </c>
       <c r="S5">
-        <v>0.1440592803652144</v>
+        <v>0.09906596178948875</v>
       </c>
       <c r="T5">
-        <v>0.1440592803652144</v>
+        <v>0.09906596178948875</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>30.70486</v>
       </c>
       <c r="I6">
-        <v>0.1462655586439962</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="J6">
-        <v>0.1462655586439962</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.08345333333333334</v>
+        <v>0.08345333333333332</v>
       </c>
       <c r="N6">
         <v>0.25036</v>
       </c>
       <c r="O6">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="P6">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="Q6">
-        <v>0.8541409721777778</v>
+        <v>0.8541409721777777</v>
       </c>
       <c r="R6">
-        <v>7.687268749600001</v>
+        <v>7.687268749599999</v>
       </c>
       <c r="S6">
-        <v>0.001301750148178751</v>
+        <v>0.383815447131173</v>
       </c>
       <c r="T6">
-        <v>0.001301750148178751</v>
+        <v>0.383815447131173</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>30.70486</v>
       </c>
       <c r="I7">
-        <v>0.1462655586439962</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="J7">
-        <v>0.1462655586439962</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>0.173964</v>
       </c>
       <c r="O7">
-        <v>0.006184149836699327</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="P7">
-        <v>0.006184149836699326</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="Q7">
         <v>0.5935044738933334</v>
@@ -880,10 +880,10 @@
         <v>5.34154026504</v>
       </c>
       <c r="S7">
-        <v>0.0009045281306030048</v>
+        <v>0.2666962391944696</v>
       </c>
       <c r="T7">
-        <v>0.0009045281306030048</v>
+        <v>0.2666962391944696</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>9.804991999999999</v>
       </c>
       <c r="I8">
-        <v>0.04670702398186845</v>
+        <v>0.2393628514556874</v>
       </c>
       <c r="J8">
-        <v>0.04670702398186845</v>
+        <v>0.2393628514556874</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>9.235433666666667</v>
+        <v>0.02154</v>
       </c>
       <c r="N8">
-        <v>27.706301</v>
+        <v>0.06462</v>
       </c>
       <c r="O8">
-        <v>0.9849159412561933</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="P8">
-        <v>0.9849159412561931</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="Q8">
-        <v>30.18445107273244</v>
+        <v>0.07039984255999998</v>
       </c>
       <c r="R8">
-        <v>271.660059654592</v>
+        <v>0.6335985830399998</v>
       </c>
       <c r="S8">
-        <v>0.04600249248837756</v>
+        <v>0.03163476279710257</v>
       </c>
       <c r="T8">
-        <v>0.04600249248837755</v>
+        <v>0.03163476279710257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>9.804991999999999</v>
       </c>
       <c r="I9">
-        <v>0.04670702398186845</v>
+        <v>0.2393628514556874</v>
       </c>
       <c r="J9">
-        <v>0.04670702398186845</v>
+        <v>0.2393628514556874</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -986,28 +986,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.08345333333333334</v>
+        <v>0.08345333333333332</v>
       </c>
       <c r="N9">
         <v>0.25036</v>
       </c>
       <c r="O9">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="P9">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="Q9">
-        <v>0.2727530885688889</v>
+        <v>0.2727530885688888</v>
       </c>
       <c r="R9">
-        <v>2.45477779712</v>
+        <v>2.454777797119999</v>
       </c>
       <c r="S9">
-        <v>0.000415688258760713</v>
+        <v>0.1225638999362828</v>
       </c>
       <c r="T9">
-        <v>0.0004156882587607132</v>
+        <v>0.1225638999362829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>9.804991999999999</v>
       </c>
       <c r="I10">
-        <v>0.04670702398186845</v>
+        <v>0.2393628514556874</v>
       </c>
       <c r="J10">
-        <v>0.04670702398186845</v>
+        <v>0.2393628514556874</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>0.173964</v>
       </c>
       <c r="O10">
-        <v>0.006184149836699327</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="P10">
-        <v>0.006184149836699326</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="Q10">
         <v>0.1895239586986666</v>
@@ -1066,10 +1066,10 @@
         <v>1.705715628288</v>
       </c>
       <c r="S10">
-        <v>0.0002888432347301833</v>
+        <v>0.08516418872230194</v>
       </c>
       <c r="T10">
-        <v>0.0002888432347301833</v>
+        <v>0.08516418872230196</v>
       </c>
     </row>
   </sheetData>
